--- a/TestAssignment_Testcases.xlsx
+++ b/TestAssignment_Testcases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>User should be connected to the Internet.</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Enter invalid values in required field Last Name : "A" or "1" or "11" or "@" or "@@"</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter invalid values in required field Username : "Testing" </t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter invalid values in required field Password : "Testing" </t>
   </si>
   <si>
@@ -149,6 +146,27 @@
   </si>
   <si>
     <t>Test Status</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Failed for "11"or "@@"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter invalid values in required field Username : "Testing"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falied for "abc@gmail" or "abcd.com" </t>
+  </si>
+  <si>
+    <t>Failed for  "abcd111111" and ""TestingAut" and "Testing@13"</t>
   </si>
 </sst>
 </file>
@@ -194,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +250,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +310,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -315,6 +345,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -598,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,17 +647,19 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -638,10 +676,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,9 +698,12 @@
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3">
@@ -671,9 +715,12 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3">
@@ -685,9 +732,12 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3">
@@ -699,9 +749,12 @@
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3">
@@ -713,9 +766,12 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3">
@@ -727,9 +783,12 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3">
@@ -741,9 +800,12 @@
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3">
@@ -755,9 +817,12 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3">
@@ -769,9 +834,12 @@
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3">
@@ -783,9 +851,12 @@
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,9 +872,12 @@
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3">
@@ -815,9 +889,12 @@
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3">
@@ -829,9 +906,12 @@
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10">
@@ -843,9 +923,12 @@
       <c r="E17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10">
@@ -857,9 +940,12 @@
       <c r="E18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10">
@@ -871,9 +957,12 @@
       <c r="E19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10">
@@ -885,9 +974,12 @@
       <c r="E20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10">
@@ -899,9 +991,12 @@
       <c r="E21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10">
@@ -913,14 +1008,17 @@
       <c r="E22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -931,9 +1029,12 @@
       <c r="E24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3">
@@ -945,9 +1046,12 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10">
@@ -959,9 +1063,14 @@
       <c r="E26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10">
@@ -973,77 +1082,101 @@
       <c r="E27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10">
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10">
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10">
         <v>8</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10">
         <v>9</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10">
         <v>10</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestAssignment_Testcases.xlsx
+++ b/TestAssignment_Testcases.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="3495" windowHeight="4545"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
   <si>
     <t>User should be connected to the Internet.</t>
   </si>
@@ -115,21 +116,12 @@
     <t>Enter mandatory fields : password : TestingAuto</t>
   </si>
   <si>
-    <t>Enter mandatory fields : Confirm Password : TestingAuto</t>
-  </si>
-  <si>
     <t>Enter mandatory fields : Email : TestingAuto@gmail.com</t>
   </si>
   <si>
     <t>Validation should be present " This value is not valid"</t>
   </si>
   <si>
-    <t>Enter invalid values in required field First Name : "A" or "1" or "11" or "@" or "@@"</t>
-  </si>
-  <si>
-    <t>Enter invalid values in required field Last Name : "A" or "1" or "11" or "@" or "@@"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter invalid values in required field Password : "Testing" </t>
   </si>
   <si>
@@ -157,9 +149,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Failed for "11"or "@@"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter invalid values in required field Username : "Testing"  </t>
   </si>
   <si>
@@ -167,13 +156,130 @@
   </si>
   <si>
     <t>Failed for  "abcd111111" and ""TestingAut" and "Testing@13"</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Chitra</t>
+  </si>
+  <si>
+    <t>Mahor</t>
+  </si>
+  <si>
+    <t>TestingAuto</t>
+  </si>
+  <si>
+    <t>TestingAuto@gmail.com</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>!!</t>
+  </si>
+  <si>
+    <t>Enter invalid values in required field Last Name : "A" or "1" or "11" or "@" or "!!"</t>
+  </si>
+  <si>
+    <t>Enter invalid values in required field First Name : "A" or "1" or "11" or "@" or "!!"</t>
+  </si>
+  <si>
+    <t>Failed for "11"or "!!"</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>!!!!!!!</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abc@gmail</t>
+  </si>
+  <si>
+    <t>abcd.com</t>
+  </si>
+  <si>
+    <t>123@yahoo</t>
+  </si>
+  <si>
+    <t>1234.com</t>
+  </si>
+  <si>
+    <t>Test@1</t>
+  </si>
+  <si>
+    <t>Test@2</t>
+  </si>
+  <si>
+    <t>Test@3</t>
+  </si>
+  <si>
+    <t>Enter mandatory fields : Confirm Password : " TestingAuto1"</t>
+  </si>
+  <si>
+    <t>Value entered and should throw error password mismatch</t>
+  </si>
+  <si>
+    <t>Enter mandatory fields : Confirm Password : " TestingAuto"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value entered </t>
+  </si>
+  <si>
+    <t>Password missmatch should not be allowed</t>
+  </si>
+  <si>
+    <t>Contact NO</t>
+  </si>
+  <si>
+    <t>abcd111111</t>
+  </si>
+  <si>
+    <t>TestingAut</t>
+  </si>
+  <si>
+    <t>Testing@Aut</t>
+  </si>
+  <si>
+    <t>Testing@13</t>
+  </si>
+  <si>
+    <t>!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Potential Defects</t>
+  </si>
+  <si>
+    <t>Please refer the failed test cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +313,22 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -304,13 +426,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -352,9 +512,40 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -634,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +867,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -699,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -716,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -733,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -750,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -767,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9"/>
     </row>
@@ -784,42 +975,42 @@
         <v>10</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>40</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -829,13 +1020,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -846,85 +1037,85 @@
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="F17" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -932,16 +1123,16 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -949,16 +1140,16 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -966,177 +1157,177 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10">
+        <v>9</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3">
+      <c r="F25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="F26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G30" s="9"/>
     </row>
@@ -1144,42 +1335,292 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10">
+        <v>9</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10">
         <v>10</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B37:E40"/>
+    <mergeCell ref="B36:E36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1234567</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1234567</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1234567</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1234567</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>9876543210</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="D6:E6" r:id="rId5" display="Test@1"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>